--- a/OMM-Task4_1.xlsx
+++ b/OMM-Task4_1.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="6">
-  <si>
-    <t>CooA.wav</t>
-  </si>
-  <si>
-    <t>CooB.wav</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="6">
   <si>
     <t>Sound1</t>
   </si>
@@ -33,7 +27,13 @@
     <t>Position_Target</t>
   </si>
   <si>
+    <t>Avg16.wav</t>
+  </si>
+  <si>
     <t>Coo_01.wav</t>
+  </si>
+  <si>
+    <t>Coo_02.wav</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="A1:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,21 +397,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -928,9 +928,185 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
         <v>2</v>
       </c>
     </row>
